--- a/published-data/fonds-solidarite/fds-2022-02-28/fonds-solidarite-volet-1-regional-classe-effectif-latest.xlsx
+++ b/published-data/fonds-solidarite/fds-2022-02-28/fonds-solidarite-volet-1-regional-classe-effectif-latest.xlsx
@@ -492,13 +492,13 @@
         </is>
       </c>
       <c r="C2" t="n">
-        <v>100802</v>
+        <v>100800</v>
       </c>
       <c r="D2" t="n">
         <v>18993</v>
       </c>
       <c r="E2" t="n">
-        <v>327280426</v>
+        <v>327272510</v>
       </c>
       <c r="F2" t="inlineStr">
         <is>
@@ -533,13 +533,13 @@
         </is>
       </c>
       <c r="C3" t="n">
-        <v>249276</v>
+        <v>249273</v>
       </c>
       <c r="D3" t="n">
         <v>47457</v>
       </c>
       <c r="E3" t="n">
-        <v>1036206026</v>
+        <v>1036172372</v>
       </c>
       <c r="F3" t="inlineStr">
         <is>
@@ -615,13 +615,13 @@
         </is>
       </c>
       <c r="C5" t="n">
-        <v>39478</v>
+        <v>39477</v>
       </c>
       <c r="D5" t="n">
         <v>6628</v>
       </c>
       <c r="E5" t="n">
-        <v>361437789</v>
+        <v>361411392</v>
       </c>
       <c r="F5" t="inlineStr">
         <is>
@@ -2296,13 +2296,13 @@
         </is>
       </c>
       <c r="C46" t="n">
-        <v>10921</v>
+        <v>10920</v>
       </c>
       <c r="D46" t="n">
         <v>1770</v>
       </c>
       <c r="E46" t="n">
-        <v>66194111</v>
+        <v>66193511</v>
       </c>
       <c r="F46" t="inlineStr">
         <is>
@@ -2583,13 +2583,13 @@
         </is>
       </c>
       <c r="C53" t="n">
-        <v>141656</v>
+        <v>141655</v>
       </c>
       <c r="D53" t="n">
         <v>28854</v>
       </c>
       <c r="E53" t="n">
-        <v>589988411</v>
+        <v>589981563</v>
       </c>
       <c r="F53" t="inlineStr">
         <is>
@@ -2665,13 +2665,13 @@
         </is>
       </c>
       <c r="C55" t="n">
-        <v>23188</v>
+        <v>23187</v>
       </c>
       <c r="D55" t="n">
         <v>4124</v>
       </c>
       <c r="E55" t="n">
-        <v>187779348</v>
+        <v>187773972</v>
       </c>
       <c r="F55" t="inlineStr">
         <is>
@@ -2747,13 +2747,13 @@
         </is>
       </c>
       <c r="C57" t="n">
-        <v>3706</v>
+        <v>3705</v>
       </c>
       <c r="D57" t="n">
         <v>623</v>
       </c>
       <c r="E57" t="n">
-        <v>137946554</v>
+        <v>137905354</v>
       </c>
       <c r="F57" t="inlineStr">
         <is>
@@ -2993,13 +2993,13 @@
         </is>
       </c>
       <c r="C63" t="n">
-        <v>14102</v>
+        <v>14101</v>
       </c>
       <c r="D63" t="n">
         <v>2811</v>
       </c>
       <c r="E63" t="n">
-        <v>35461428</v>
+        <v>35459928</v>
       </c>
       <c r="F63" t="inlineStr">
         <is>
@@ -3034,13 +3034,13 @@
         </is>
       </c>
       <c r="C64" t="n">
-        <v>5056</v>
+        <v>5055</v>
       </c>
       <c r="D64" t="n">
         <v>1053</v>
       </c>
       <c r="E64" t="n">
-        <v>19410015</v>
+        <v>19389984</v>
       </c>
       <c r="F64" t="inlineStr">
         <is>
@@ -3649,13 +3649,13 @@
         </is>
       </c>
       <c r="C79" t="n">
-        <v>116575</v>
+        <v>116574</v>
       </c>
       <c r="D79" t="n">
         <v>22734</v>
       </c>
       <c r="E79" t="n">
-        <v>447286129</v>
+        <v>447276129</v>
       </c>
       <c r="F79" t="inlineStr">
         <is>
@@ -3731,13 +3731,13 @@
         </is>
       </c>
       <c r="C81" t="n">
-        <v>17424</v>
+        <v>17423</v>
       </c>
       <c r="D81" t="n">
         <v>3213</v>
       </c>
       <c r="E81" t="n">
-        <v>133408450</v>
+        <v>133403196</v>
       </c>
       <c r="F81" t="inlineStr">
         <is>
@@ -4141,13 +4141,13 @@
         </is>
       </c>
       <c r="C91" t="n">
-        <v>150987</v>
+        <v>150984</v>
       </c>
       <c r="D91" t="n">
         <v>24833</v>
       </c>
       <c r="E91" t="n">
-        <v>480953671</v>
+        <v>480931655</v>
       </c>
       <c r="F91" t="inlineStr">
         <is>
@@ -4182,13 +4182,13 @@
         </is>
       </c>
       <c r="C92" t="n">
-        <v>408712</v>
+        <v>408705</v>
       </c>
       <c r="D92" t="n">
         <v>70901</v>
       </c>
       <c r="E92" t="n">
-        <v>1590457459</v>
+        <v>1590402401</v>
       </c>
       <c r="F92" t="inlineStr">
         <is>
@@ -4223,13 +4223,13 @@
         </is>
       </c>
       <c r="C93" t="n">
-        <v>209259</v>
+        <v>209256</v>
       </c>
       <c r="D93" t="n">
         <v>34258</v>
       </c>
       <c r="E93" t="n">
-        <v>1304015728</v>
+        <v>1303951700</v>
       </c>
       <c r="F93" t="inlineStr">
         <is>
@@ -4264,13 +4264,13 @@
         </is>
       </c>
       <c r="C94" t="n">
-        <v>94004</v>
+        <v>93999</v>
       </c>
       <c r="D94" t="n">
         <v>13792</v>
       </c>
       <c r="E94" t="n">
-        <v>911508273</v>
+        <v>911298136</v>
       </c>
       <c r="F94" t="inlineStr">
         <is>
@@ -4346,13 +4346,13 @@
         </is>
       </c>
       <c r="C96" t="n">
-        <v>17146</v>
+        <v>17144</v>
       </c>
       <c r="D96" t="n">
         <v>2564</v>
       </c>
       <c r="E96" t="n">
-        <v>780965357</v>
+        <v>780902892</v>
       </c>
       <c r="F96" t="inlineStr">
         <is>
@@ -4674,13 +4674,13 @@
         </is>
       </c>
       <c r="C104" t="n">
-        <v>135154</v>
+        <v>135152</v>
       </c>
       <c r="D104" t="n">
         <v>23280</v>
       </c>
       <c r="E104" t="n">
-        <v>271719428</v>
+        <v>271713428</v>
       </c>
       <c r="F104" t="inlineStr">
         <is>
@@ -4756,13 +4756,13 @@
         </is>
       </c>
       <c r="C106" t="n">
-        <v>18119</v>
+        <v>18118</v>
       </c>
       <c r="D106" t="n">
         <v>4979</v>
       </c>
       <c r="E106" t="n">
-        <v>40714435</v>
+        <v>40712935</v>
       </c>
       <c r="F106" t="inlineStr">
         <is>
@@ -5084,13 +5084,13 @@
         </is>
       </c>
       <c r="C114" t="n">
-        <v>3715</v>
+        <v>3714</v>
       </c>
       <c r="D114" t="n">
         <v>699</v>
       </c>
       <c r="E114" t="n">
-        <v>8916220</v>
+        <v>8915019</v>
       </c>
       <c r="F114" t="inlineStr">
         <is>
@@ -5125,13 +5125,13 @@
         </is>
       </c>
       <c r="C115" t="n">
-        <v>11471</v>
+        <v>11468</v>
       </c>
       <c r="D115" t="n">
         <v>2248</v>
       </c>
       <c r="E115" t="n">
-        <v>32308090</v>
+        <v>32283158</v>
       </c>
       <c r="F115" t="inlineStr">
         <is>
@@ -5166,13 +5166,13 @@
         </is>
       </c>
       <c r="C116" t="n">
-        <v>4426</v>
+        <v>4424</v>
       </c>
       <c r="D116" t="n">
         <v>967</v>
       </c>
       <c r="E116" t="n">
-        <v>19536136</v>
+        <v>19530976</v>
       </c>
       <c r="F116" t="inlineStr">
         <is>
@@ -5248,13 +5248,13 @@
         </is>
       </c>
       <c r="C118" t="n">
-        <v>908</v>
+        <v>906</v>
       </c>
       <c r="D118" t="n">
         <v>160</v>
       </c>
       <c r="E118" t="n">
-        <v>10462697</v>
+        <v>10421491</v>
       </c>
       <c r="F118" t="inlineStr">
         <is>
@@ -5412,13 +5412,13 @@
         </is>
       </c>
       <c r="C122" t="n">
-        <v>8329</v>
+        <v>8324</v>
       </c>
       <c r="D122" t="n">
         <v>1493</v>
       </c>
       <c r="E122" t="n">
-        <v>12560350</v>
+        <v>12555568</v>
       </c>
       <c r="F122" t="inlineStr">
         <is>
@@ -5781,13 +5781,13 @@
         </is>
       </c>
       <c r="C131" t="n">
-        <v>75574</v>
+        <v>75573</v>
       </c>
       <c r="D131" t="n">
         <v>15099</v>
       </c>
       <c r="E131" t="n">
-        <v>307077678</v>
+        <v>307076240</v>
       </c>
       <c r="F131" t="inlineStr">
         <is>
@@ -7216,13 +7216,13 @@
         </is>
       </c>
       <c r="C166" t="n">
-        <v>35926</v>
+        <v>35925</v>
       </c>
       <c r="D166" t="n">
         <v>7079</v>
       </c>
       <c r="E166" t="n">
-        <v>210544120</v>
+        <v>210542620</v>
       </c>
       <c r="F166" t="inlineStr">
         <is>
@@ -7544,13 +7544,13 @@
         </is>
       </c>
       <c r="C174" t="n">
-        <v>226047</v>
+        <v>226046</v>
       </c>
       <c r="D174" t="n">
         <v>40898</v>
       </c>
       <c r="E174" t="n">
-        <v>900134076</v>
+        <v>900132284</v>
       </c>
       <c r="F174" t="inlineStr">
         <is>
@@ -7585,13 +7585,13 @@
         </is>
       </c>
       <c r="C175" t="n">
-        <v>80751</v>
+        <v>80749</v>
       </c>
       <c r="D175" t="n">
         <v>14070</v>
       </c>
       <c r="E175" t="n">
-        <v>485295848</v>
+        <v>485283850</v>
       </c>
       <c r="F175" t="inlineStr">
         <is>
@@ -7954,13 +7954,13 @@
         </is>
       </c>
       <c r="C184" t="n">
-        <v>68727</v>
+        <v>68726</v>
       </c>
       <c r="D184" t="n">
         <v>13879</v>
       </c>
       <c r="E184" t="n">
-        <v>134116344</v>
+        <v>134113858</v>
       </c>
       <c r="F184" t="inlineStr">
         <is>

--- a/published-data/fonds-solidarite/fds-2022-02-28/fonds-solidarite-volet-1-regional-classe-effectif-latest.xlsx
+++ b/published-data/fonds-solidarite/fds-2022-02-28/fonds-solidarite-volet-1-regional-classe-effectif-latest.xlsx
@@ -492,13 +492,13 @@
         </is>
       </c>
       <c r="C2" t="n">
-        <v>100800</v>
+        <v>100802</v>
       </c>
       <c r="D2" t="n">
         <v>18993</v>
       </c>
       <c r="E2" t="n">
-        <v>327272510</v>
+        <v>327280426</v>
       </c>
       <c r="F2" t="inlineStr">
         <is>
@@ -533,13 +533,13 @@
         </is>
       </c>
       <c r="C3" t="n">
-        <v>249273</v>
+        <v>249276</v>
       </c>
       <c r="D3" t="n">
         <v>47457</v>
       </c>
       <c r="E3" t="n">
-        <v>1036172372</v>
+        <v>1036206026</v>
       </c>
       <c r="F3" t="inlineStr">
         <is>
@@ -615,13 +615,13 @@
         </is>
       </c>
       <c r="C5" t="n">
-        <v>39477</v>
+        <v>39478</v>
       </c>
       <c r="D5" t="n">
         <v>6628</v>
       </c>
       <c r="E5" t="n">
-        <v>361411392</v>
+        <v>361437789</v>
       </c>
       <c r="F5" t="inlineStr">
         <is>
@@ -2296,13 +2296,13 @@
         </is>
       </c>
       <c r="C46" t="n">
-        <v>10920</v>
+        <v>10921</v>
       </c>
       <c r="D46" t="n">
         <v>1770</v>
       </c>
       <c r="E46" t="n">
-        <v>66193511</v>
+        <v>66194111</v>
       </c>
       <c r="F46" t="inlineStr">
         <is>
@@ -2583,13 +2583,13 @@
         </is>
       </c>
       <c r="C53" t="n">
-        <v>141655</v>
+        <v>141656</v>
       </c>
       <c r="D53" t="n">
         <v>28854</v>
       </c>
       <c r="E53" t="n">
-        <v>589981563</v>
+        <v>589988411</v>
       </c>
       <c r="F53" t="inlineStr">
         <is>
@@ -2665,13 +2665,13 @@
         </is>
       </c>
       <c r="C55" t="n">
-        <v>23187</v>
+        <v>23188</v>
       </c>
       <c r="D55" t="n">
         <v>4124</v>
       </c>
       <c r="E55" t="n">
-        <v>187773972</v>
+        <v>187779348</v>
       </c>
       <c r="F55" t="inlineStr">
         <is>
@@ -2747,13 +2747,13 @@
         </is>
       </c>
       <c r="C57" t="n">
-        <v>3705</v>
+        <v>3706</v>
       </c>
       <c r="D57" t="n">
         <v>623</v>
       </c>
       <c r="E57" t="n">
-        <v>137905354</v>
+        <v>137946554</v>
       </c>
       <c r="F57" t="inlineStr">
         <is>
@@ -2993,13 +2993,13 @@
         </is>
       </c>
       <c r="C63" t="n">
-        <v>14101</v>
+        <v>14102</v>
       </c>
       <c r="D63" t="n">
         <v>2811</v>
       </c>
       <c r="E63" t="n">
-        <v>35459928</v>
+        <v>35461428</v>
       </c>
       <c r="F63" t="inlineStr">
         <is>
@@ -3034,13 +3034,13 @@
         </is>
       </c>
       <c r="C64" t="n">
-        <v>5055</v>
+        <v>5056</v>
       </c>
       <c r="D64" t="n">
         <v>1053</v>
       </c>
       <c r="E64" t="n">
-        <v>19389984</v>
+        <v>19410015</v>
       </c>
       <c r="F64" t="inlineStr">
         <is>
@@ -3649,13 +3649,13 @@
         </is>
       </c>
       <c r="C79" t="n">
-        <v>116574</v>
+        <v>116575</v>
       </c>
       <c r="D79" t="n">
         <v>22734</v>
       </c>
       <c r="E79" t="n">
-        <v>447276129</v>
+        <v>447286129</v>
       </c>
       <c r="F79" t="inlineStr">
         <is>
@@ -3731,13 +3731,13 @@
         </is>
       </c>
       <c r="C81" t="n">
-        <v>17423</v>
+        <v>17424</v>
       </c>
       <c r="D81" t="n">
         <v>3213</v>
       </c>
       <c r="E81" t="n">
-        <v>133403196</v>
+        <v>133408450</v>
       </c>
       <c r="F81" t="inlineStr">
         <is>
@@ -4141,13 +4141,13 @@
         </is>
       </c>
       <c r="C91" t="n">
-        <v>150984</v>
+        <v>150987</v>
       </c>
       <c r="D91" t="n">
         <v>24833</v>
       </c>
       <c r="E91" t="n">
-        <v>480931655</v>
+        <v>480953671</v>
       </c>
       <c r="F91" t="inlineStr">
         <is>
@@ -4182,13 +4182,13 @@
         </is>
       </c>
       <c r="C92" t="n">
-        <v>408705</v>
+        <v>408712</v>
       </c>
       <c r="D92" t="n">
         <v>70901</v>
       </c>
       <c r="E92" t="n">
-        <v>1590402401</v>
+        <v>1590457459</v>
       </c>
       <c r="F92" t="inlineStr">
         <is>
@@ -4223,13 +4223,13 @@
         </is>
       </c>
       <c r="C93" t="n">
-        <v>209256</v>
+        <v>209259</v>
       </c>
       <c r="D93" t="n">
         <v>34258</v>
       </c>
       <c r="E93" t="n">
-        <v>1303951700</v>
+        <v>1304015728</v>
       </c>
       <c r="F93" t="inlineStr">
         <is>
@@ -4264,13 +4264,13 @@
         </is>
       </c>
       <c r="C94" t="n">
-        <v>93999</v>
+        <v>94004</v>
       </c>
       <c r="D94" t="n">
         <v>13792</v>
       </c>
       <c r="E94" t="n">
-        <v>911298136</v>
+        <v>911508273</v>
       </c>
       <c r="F94" t="inlineStr">
         <is>
@@ -4346,13 +4346,13 @@
         </is>
       </c>
       <c r="C96" t="n">
-        <v>17144</v>
+        <v>17146</v>
       </c>
       <c r="D96" t="n">
         <v>2564</v>
       </c>
       <c r="E96" t="n">
-        <v>780902892</v>
+        <v>780965357</v>
       </c>
       <c r="F96" t="inlineStr">
         <is>
@@ -4674,13 +4674,13 @@
         </is>
       </c>
       <c r="C104" t="n">
-        <v>135152</v>
+        <v>135154</v>
       </c>
       <c r="D104" t="n">
         <v>23280</v>
       </c>
       <c r="E104" t="n">
-        <v>271713428</v>
+        <v>271719428</v>
       </c>
       <c r="F104" t="inlineStr">
         <is>
@@ -4756,13 +4756,13 @@
         </is>
       </c>
       <c r="C106" t="n">
-        <v>18118</v>
+        <v>18119</v>
       </c>
       <c r="D106" t="n">
         <v>4979</v>
       </c>
       <c r="E106" t="n">
-        <v>40712935</v>
+        <v>40714435</v>
       </c>
       <c r="F106" t="inlineStr">
         <is>
@@ -5084,13 +5084,13 @@
         </is>
       </c>
       <c r="C114" t="n">
-        <v>3714</v>
+        <v>3715</v>
       </c>
       <c r="D114" t="n">
         <v>699</v>
       </c>
       <c r="E114" t="n">
-        <v>8915019</v>
+        <v>8916220</v>
       </c>
       <c r="F114" t="inlineStr">
         <is>
@@ -5125,13 +5125,13 @@
         </is>
       </c>
       <c r="C115" t="n">
-        <v>11468</v>
+        <v>11471</v>
       </c>
       <c r="D115" t="n">
         <v>2248</v>
       </c>
       <c r="E115" t="n">
-        <v>32283158</v>
+        <v>32308090</v>
       </c>
       <c r="F115" t="inlineStr">
         <is>
@@ -5166,13 +5166,13 @@
         </is>
       </c>
       <c r="C116" t="n">
-        <v>4424</v>
+        <v>4426</v>
       </c>
       <c r="D116" t="n">
         <v>967</v>
       </c>
       <c r="E116" t="n">
-        <v>19530976</v>
+        <v>19536136</v>
       </c>
       <c r="F116" t="inlineStr">
         <is>
@@ -5248,13 +5248,13 @@
         </is>
       </c>
       <c r="C118" t="n">
-        <v>906</v>
+        <v>908</v>
       </c>
       <c r="D118" t="n">
         <v>160</v>
       </c>
       <c r="E118" t="n">
-        <v>10421491</v>
+        <v>10462697</v>
       </c>
       <c r="F118" t="inlineStr">
         <is>
@@ -5412,13 +5412,13 @@
         </is>
       </c>
       <c r="C122" t="n">
-        <v>8324</v>
+        <v>8329</v>
       </c>
       <c r="D122" t="n">
         <v>1493</v>
       </c>
       <c r="E122" t="n">
-        <v>12555568</v>
+        <v>12560350</v>
       </c>
       <c r="F122" t="inlineStr">
         <is>
@@ -5781,13 +5781,13 @@
         </is>
       </c>
       <c r="C131" t="n">
-        <v>75573</v>
+        <v>75574</v>
       </c>
       <c r="D131" t="n">
         <v>15099</v>
       </c>
       <c r="E131" t="n">
-        <v>307076240</v>
+        <v>307077678</v>
       </c>
       <c r="F131" t="inlineStr">
         <is>
@@ -7216,13 +7216,13 @@
         </is>
       </c>
       <c r="C166" t="n">
-        <v>35925</v>
+        <v>35926</v>
       </c>
       <c r="D166" t="n">
         <v>7079</v>
       </c>
       <c r="E166" t="n">
-        <v>210542620</v>
+        <v>210544120</v>
       </c>
       <c r="F166" t="inlineStr">
         <is>
@@ -7544,13 +7544,13 @@
         </is>
       </c>
       <c r="C174" t="n">
-        <v>226046</v>
+        <v>226047</v>
       </c>
       <c r="D174" t="n">
         <v>40898</v>
       </c>
       <c r="E174" t="n">
-        <v>900132284</v>
+        <v>900134076</v>
       </c>
       <c r="F174" t="inlineStr">
         <is>
@@ -7585,13 +7585,13 @@
         </is>
       </c>
       <c r="C175" t="n">
-        <v>80749</v>
+        <v>80751</v>
       </c>
       <c r="D175" t="n">
         <v>14070</v>
       </c>
       <c r="E175" t="n">
-        <v>485283850</v>
+        <v>485295848</v>
       </c>
       <c r="F175" t="inlineStr">
         <is>
@@ -7954,13 +7954,13 @@
         </is>
       </c>
       <c r="C184" t="n">
-        <v>68726</v>
+        <v>68727</v>
       </c>
       <c r="D184" t="n">
         <v>13879</v>
       </c>
       <c r="E184" t="n">
-        <v>134113858</v>
+        <v>134116344</v>
       </c>
       <c r="F184" t="inlineStr">
         <is>
